--- a/team_specific_matrix/Southwest (NM)_B.xlsx
+++ b/team_specific_matrix/Southwest (NM)_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -782,10 +782,10 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.4857142857142857</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1286,13 +1286,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1401,10 +1401,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.07272727272727272</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
   </sheetData>
